--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_29.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3311965811965812</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:00:00.220000', '0:00:05.780000'), ('0:00:00.860000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.220000', '0:00:16.840000'), ('0:00:08.540000', '0:00:19.540000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.46, 18.4), (118.44, 121.68), (0.24, 5.08)]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.12, 40.3), (75.8, 79.6), (10.38, 16.32)]</t>
+          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:16.260000', '0:00:19.340000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>jaah_26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04791666666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['G:7', 'C', 'C#:dim7'], ['D:min7', 'G:7', 'C'], ['E:min7', 'A:min7', 'D:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.86, 22.46)]</t>
+          <t>[['Eb:7', 'Ab', 'A:dim7'], ['Bb:min7', 'Eb:7', 'Ab'], ['C:min7', 'F:min7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492)]</t>
+          <t>[('0:00:43.200000', '0:00:47.350000'), ('0:00:42.370000', '0:00:45.670000'), ('0:00:28.130000', '0:00:30.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.770000', '0:00:03.220000'), ('0:01:32.140000', '0:01:33.290000'), ('0:00:16.910000', '0:00:18.470000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.525011', '0:00:16.557573')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.74, 17.58)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.74, 26.16)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(33.0, 48.22)]</t>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(46.272131, 52.17)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(93.383, 100.112)]</t>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08247903075489282</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(63.01, 68.27), (86.64, 91.93)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.82, 17.23), (13.39, 15.07)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(68.82, 77.92), (43.18, 45.1), (87.68, 98.02)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98), (23.98, 27.34), (9.72, 13.0)]</t>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.86, 13.9)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.6, 24.08)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(89.08, 98.1)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(32.52, 47.4)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.26, 61.0)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(24.86, 45.46)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1080745341614907</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.043, 10.286)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.935986, 12.498707)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
